--- a/biology/Médecine/Hôpital_de_la_Sainte-Croix/Hôpital_de_la_Sainte-Croix.xlsx
+++ b/biology/Médecine/Hôpital_de_la_Sainte-Croix/Hôpital_de_la_Sainte-Croix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_la_Sainte-Croix</t>
+          <t>Hôpital_de_la_Sainte-Croix</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hôpital de la Sainte-Croix[1],[2] (en catalan Hospital de la Santa Creu) est un bâtiment gothique du XVe siècle, situé dans le quartier du Raval, dans la vieille ville de Barcelone, entre les rues de l'Hospital et du Carme.
-Ancien hôpital historique de la ville, ancien siège de l'école Massana, école des Beaux-Arts de Barcelone[3], il accueille notamment aujourd'hui la Bibliothèque de Catalogne et l'Institut d'études catalanes[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hôpital de la Sainte-Croix, (en catalan Hospital de la Santa Creu) est un bâtiment gothique du XVe siècle, situé dans le quartier du Raval, dans la vieille ville de Barcelone, entre les rues de l'Hospital et du Carme.
+Ancien hôpital historique de la ville, ancien siège de l'école Massana, école des Beaux-Arts de Barcelone, il accueille notamment aujourd'hui la Bibliothèque de Catalogne et l'Institut d'études catalanes.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_la_Sainte-Croix</t>
+          <t>Hôpital_de_la_Sainte-Croix</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été créé dans le but de réunir dans un unique bâtiment les six hôpitaux qui existaient alors dans la ville.
 La première pierre a été posée en 1402 en présence du roi Martin Ier d'Aragon, et les travaux se sont prolongés jusqu'au XVIIIe siècle, c'est pourquoi l'hôpital combine des éléments gothiques, renaissance et baroque. Dans le projet initial  attribué au maître Arnau Bagués, le bâtiment devait se composer de quatre nefs de deux étages et former un rectangle, mais seuls trois nefs ont été édifiées, de sorte que le cloître est resté ouvert sur un de ses côtés.
